--- a/Conception rates by age and country.xlsx
+++ b/Conception rates by age and country.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/a_baxter_1_research_gla_ac_uk/Documents/R Studio - home folder/teen-preg-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2286432B\OneDrive - University of Glasgow\R Studio - home folder\teen-preg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Under 16" sheetId="1" r:id="rId1"/>
@@ -454,24 +454,102 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,86 +568,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2367,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2839,7 +2839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3474,7 +3474,7 @@
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AE5" sqref="AE5"/>
@@ -4335,544 +4335,544 @@
       <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="59">
+      <c r="B1" s="85">
         <v>2015</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="58">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="84">
         <v>2014</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="59">
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="85">
         <v>2013</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="58">
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="84">
         <v>2012</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="70">
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="81">
         <v>2011</v>
       </c>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="72"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
       <c r="AO1" s="27"/>
-      <c r="AP1" s="70">
+      <c r="AP1" s="81">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="72"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="83"/>
       <c r="AW1" s="27"/>
-      <c r="AX1" s="58">
+      <c r="AX1" s="84">
         <v>2009</v>
       </c>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="60"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="86"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="52" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="53" t="s">
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="52" t="s">
+      <c r="S2" s="69"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="52" t="s">
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="52" t="s">
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="52" t="s">
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="52" t="s">
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="52" t="s">
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="52" t="s">
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="52" t="s">
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="52" t="s">
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
-      <c r="BE2" s="54"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="79"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="57"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="75"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="80"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="64" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="63"/>
+      <c r="J4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89" t="s">
+      <c r="O4" s="60"/>
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="73" t="s">
+      <c r="Q4" s="54"/>
+      <c r="R4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="83" t="s">
+      <c r="T4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="64"/>
-      <c r="X4" s="89" t="s">
+      <c r="W4" s="69"/>
+      <c r="X4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="86" t="s">
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="89" t="s">
+      <c r="AA4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="83" t="s">
+      <c r="AB4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="73" t="s">
+      <c r="AC4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="89" t="s">
+      <c r="AD4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="89" t="s">
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="73" t="s">
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="89" t="s">
+      <c r="AI4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="83" t="s">
+      <c r="AJ4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="73" t="s">
+      <c r="AK4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="89" t="s">
+      <c r="AL4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="89" t="s">
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="73" t="s">
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="89" t="s">
+      <c r="AQ4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="83" t="s">
+      <c r="AR4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="73" t="s">
+      <c r="AS4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="89" t="s">
+      <c r="AT4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="89" t="s">
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="86" t="s">
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="89" t="s">
+      <c r="AY4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="83" t="s">
+      <c r="AZ4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="BA4" s="90" t="s">
+      <c r="BA4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="74" t="s">
+      <c r="BB4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="74" t="s">
+      <c r="BC4" s="67"/>
+      <c r="BD4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="BE4" s="65"/>
+      <c r="BE4" s="54"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="81"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="74"/>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="78"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="67"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="67"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="55"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="74"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="74"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="81"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="81"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="81"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="77"/>
-      <c r="BD6" s="74"/>
-      <c r="BE6" s="78"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="58"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="52"/>
+      <c r="BB6" s="61"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="55"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="88"/>
-      <c r="AY7" s="82"/>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="82"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="68"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="65"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="56"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
@@ -5753,26 +5753,48 @@
     <sortCondition descending="1" ref="K23"/>
   </sortState>
   <mergeCells count="78">
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BE4:BE7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="BB4:BB7"/>
-    <mergeCell ref="BC4:BC7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="BA2:BE3"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:Q3"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="U2:Y3"/>
+    <mergeCell ref="Z2:AB3"/>
+    <mergeCell ref="AC2:AG3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
     <mergeCell ref="U4:U7"/>
     <mergeCell ref="V4:V7"/>
     <mergeCell ref="W4:W7"/>
@@ -5789,48 +5811,26 @@
     <mergeCell ref="AH4:AH7"/>
     <mergeCell ref="AI4:AI7"/>
     <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="BA2:BE3"/>
-    <mergeCell ref="AX1:BE1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="U2:Y3"/>
-    <mergeCell ref="Z2:AB3"/>
-    <mergeCell ref="AC2:AG3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BE4:BE7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Conception rates by age and country.xlsx
+++ b/Conception rates by age and country.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Under 16" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="Under 20" sheetId="5" r:id="rId3"/>
     <sheet name="Age 18-19" sheetId="3" r:id="rId4"/>
     <sheet name="Calcs and data insert" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Table1Data">[1]table1Data!$A$1:$IV$65536</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
   <si>
     <t>Country</t>
   </si>
@@ -120,6 +121,9 @@
   <si>
     <t>USA</t>
   </si>
+  <si>
+    <t>Conceptions to under 18s</t>
+  </si>
 </sst>
 </file>
 
@@ -173,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -339,7 +349,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -454,20 +464,107 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -481,96 +578,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -2367,7 +2381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2831,7 +2845,7 @@
     <sortCondition descending="1" ref="L9:L24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2840,10 +2854,10 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,89 +3323,89 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:33" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="91">
         <v>71</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="91">
         <v>74</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="91">
         <v>74.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="91">
         <v>74.599999999999994</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="91">
         <v>73.2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="92">
         <v>70.599999999999994</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="92">
         <v>69.7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="92">
         <v>69.099999999999994</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="92">
         <v>64.400000000000006</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="92">
         <v>60.7</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="92">
         <v>56.9</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="92">
         <v>54.2</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="92">
         <v>50.8</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="92">
         <v>48.4</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="92">
         <v>44.4</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="92">
         <v>42</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="92">
         <v>40.5</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="92">
         <v>39.200000000000003</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="92">
         <v>37.799999999999997</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="92">
         <v>38.5</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="92">
         <v>38.1</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="92">
         <v>37</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="92">
         <v>34.1</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="92">
         <v>30.3</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="92">
         <v>26.7</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="92">
         <v>24</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="92">
         <v>20.8</v>
       </c>
     </row>
@@ -3474,10 +3488,10 @@
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE5" sqref="AE5"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,89 +3846,89 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:33" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="91">
         <v>93.7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="91">
         <v>98</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="91">
         <v>100.4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="91">
         <v>102.4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="91">
         <v>99.5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="92">
         <v>95.7</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="92">
         <v>92.8</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="92">
         <v>89.4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="92">
         <v>85.3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="92">
         <v>81.8</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="92">
         <v>78.3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="92">
         <v>76.400000000000006</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="92">
         <v>73.5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="92">
         <v>71.5</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="92">
         <v>67.5</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="92">
         <v>63.7</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="92">
         <v>61.3</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="92">
         <v>59.6</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="92">
         <v>58.3</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="92">
         <v>60</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="92">
         <v>59.9</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="92">
         <v>58.4</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="92">
         <v>54.6</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="92">
         <v>49.4</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="92">
         <v>53.3</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="92">
         <v>49.1</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="92">
         <v>44.1</v>
       </c>
     </row>
@@ -3923,7 +3937,7 @@
     <sortCondition descending="1" ref="I11:I32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3935,7 +3949,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,89 +4244,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:33" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="91">
         <v>160.5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="91">
         <v>164.7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="91">
         <v>167.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="91">
         <v>173.3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="91">
         <v>175</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="91">
         <v>172</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="91">
         <v>166.6</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="91">
         <v>161.80000000000001</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="91">
         <v>155.30000000000001</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="91">
         <v>150.9</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="91">
         <v>146</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="91">
         <v>141.69999999999999</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="91">
         <v>138</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="91">
         <v>135.9</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="91">
         <v>130.9</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="91">
         <v>124.4</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="91">
         <v>119.9</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="91">
         <v>117.5</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="91">
         <v>116</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="91">
         <v>119.9</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="91">
         <v>119.2</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="91">
         <v>113.8</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="91">
         <v>105.9</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="91">
         <v>96.7</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="91">
         <v>89.2</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="91">
         <v>83.2</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="91">
         <v>76.099999999999994</v>
       </c>
     </row>
@@ -4325,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AT9" sqref="AT9"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4335,544 +4349,544 @@
       <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="85">
+      <c r="B1" s="59">
         <v>2015</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="84">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="58">
         <v>2014</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="85">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="59">
         <v>2013</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="84">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="58">
         <v>2012</v>
       </c>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="81">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="70">
         <v>2011</v>
       </c>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="82"/>
-      <c r="AM1" s="82"/>
-      <c r="AN1" s="83"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="72"/>
       <c r="AO1" s="27"/>
-      <c r="AP1" s="81">
+      <c r="AP1" s="70">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="83"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="71"/>
+      <c r="AV1" s="72"/>
       <c r="AW1" s="27"/>
-      <c r="AX1" s="84">
+      <c r="AX1" s="58">
         <v>2009</v>
       </c>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="85"/>
-      <c r="BB1" s="85"/>
-      <c r="BC1" s="85"/>
-      <c r="BD1" s="85"/>
-      <c r="BE1" s="86"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="59"/>
+      <c r="BB1" s="59"/>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="60"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="71" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="71" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="73" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="71" t="s">
+      <c r="S2" s="64"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="71" t="s">
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="71" t="s">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="71" t="s">
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="71" t="s">
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="71" t="s">
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="71" t="s">
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="71" t="s">
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="71" t="s">
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="73"/>
-      <c r="BD2" s="73"/>
-      <c r="BE2" s="79"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="54"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="80"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="57"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="69" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="57" t="s">
+      <c r="I4" s="83"/>
+      <c r="J4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60" t="s">
+      <c r="O4" s="89"/>
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="70" t="s">
+      <c r="Q4" s="65"/>
+      <c r="R4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="60" t="s">
+      <c r="S4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="69"/>
-      <c r="X4" s="60" t="s">
+      <c r="W4" s="64"/>
+      <c r="X4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="57" t="s">
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="60" t="s">
+      <c r="AA4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="63" t="s">
+      <c r="AB4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="70" t="s">
+      <c r="AC4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="60" t="s">
+      <c r="AD4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="60" t="s">
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="70" t="s">
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="60" t="s">
+      <c r="AI4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="63" t="s">
+      <c r="AJ4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="70" t="s">
+      <c r="AK4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="60" t="s">
+      <c r="AL4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="60" t="s">
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="70" t="s">
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="60" t="s">
+      <c r="AQ4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="63" t="s">
+      <c r="AR4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="70" t="s">
+      <c r="AS4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="60" t="s">
+      <c r="AT4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="60" t="s">
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="57" t="s">
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="60" t="s">
+      <c r="AY4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="63" t="s">
+      <c r="AZ4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="BA4" s="66" t="s">
+      <c r="BA4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="52" t="s">
+      <c r="BB4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="67"/>
-      <c r="BD4" s="52" t="s">
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="BE4" s="54"/>
+      <c r="BE4" s="65"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="52"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="52"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="67"/>
-      <c r="BD5" s="52"/>
-      <c r="BE5" s="55"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="77"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="84"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="77"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="78"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="58"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="52"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="55"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="81"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="81"/>
+      <c r="AU6" s="77"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="78"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="81"/>
+      <c r="AZ6" s="84"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="81"/>
+      <c r="BC6" s="77"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="78"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="68"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="62"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="56"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="62"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="68"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="59"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="56"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="75"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="85"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="82"/>
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="82"/>
+      <c r="BC7" s="67"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="68"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
@@ -5753,6 +5767,68 @@
     <sortCondition descending="1" ref="K23"/>
   </sortState>
   <mergeCells count="78">
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BE4:BE7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AP1:AV1"/>
     <mergeCell ref="BA2:BE3"/>
     <mergeCell ref="AX1:BE1"/>
     <mergeCell ref="A2:A7"/>
@@ -5769,69 +5845,101 @@
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BE4:BE7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="BB4:BB7"/>
-    <mergeCell ref="BC4:BC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="47">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="47">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="47">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="47">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="47">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="47">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="47">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="93">
+        <v>38461</v>
+      </c>
+      <c r="C2" s="93">
+        <v>39350</v>
+      </c>
+      <c r="D2" s="93">
+        <v>39553</v>
+      </c>
+      <c r="E2" s="93">
+        <v>39593</v>
+      </c>
+      <c r="F2" s="94">
+        <v>39804</v>
+      </c>
+      <c r="G2" s="94">
+        <v>39170</v>
+      </c>
+      <c r="H2" s="93">
+        <v>40366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="93">
+        <v>2529</v>
+      </c>
+      <c r="C3" s="93">
+        <v>2601</v>
+      </c>
+      <c r="D3" s="93">
+        <v>2609</v>
+      </c>
+      <c r="E3" s="93">
+        <v>2605</v>
+      </c>
+      <c r="F3" s="94">
+        <v>2521</v>
+      </c>
+      <c r="G3" s="94">
+        <v>2598</v>
+      </c>
+      <c r="H3" s="93">
+        <v>2622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Conception rates by age and country.xlsx
+++ b/Conception rates by age and country.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Under 16" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
   <si>
     <t>Country</t>
   </si>
@@ -122,7 +128,22 @@
     <t>USA</t>
   </si>
   <si>
-    <t>Conceptions to under 18s</t>
+    <t xml:space="preserve">Under 18 number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under 20 number </t>
+  </si>
+  <si>
+    <t>Under 20 rate</t>
+  </si>
+  <si>
+    <t>Under 18 rate</t>
+  </si>
+  <si>
+    <t>Under 16 rate</t>
+  </si>
+  <si>
+    <t>Under 16 number</t>
   </si>
 </sst>
 </file>
@@ -134,7 +155,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +179,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -347,11 +361,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -360,231 +373,217 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -2382,10 +2381,10 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE3" sqref="AE3"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,73 +2525,73 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>8.0801924956131597</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>8.3535575530950865</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>8.8601431172460519</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>8.2219381675585499</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>8.1944295085493071</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>7.0331532676623238</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>7.3103995655533973</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>6.4134136756615145</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>7.1833287354370476</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>6.8527512408603295</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>7.2618629921427278</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>7.0019163139385521</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>7.9652349586481188</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>7.7696526508226693</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>7.7325771621769004</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>7.0143844905400297</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>6.9181261632991733</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>5.5674131291572087</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>5.6254930881898941</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>4.691349293350779</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>4.2431621201345271</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>3.0295881498404502</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>3.1</v>
       </c>
     </row>
@@ -2636,40 +2635,40 @@
       <c r="P3">
         <v>8</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="7">
         <v>7.9</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="7">
         <v>8</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="7">
         <v>7.5</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="7">
         <v>7.8</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="7">
         <v>7.7</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="7">
         <v>8.1</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="7">
         <v>7.6</v>
       </c>
-      <c r="X3" s="45">
+      <c r="X3" s="8">
         <v>7.2</v>
       </c>
-      <c r="Y3" s="45">
+      <c r="Y3" s="8">
         <v>6.8</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="7">
         <v>6.1</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="8">
         <v>5.6</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="9">
         <v>4.9000000000000004</v>
       </c>
       <c r="AC3">
@@ -2704,19 +2703,19 @@
       <c r="U4">
         <v>7.7</v>
       </c>
-      <c r="V4" s="49">
+      <c r="V4" s="39">
         <v>8.3000000000000007</v>
       </c>
       <c r="W4">
         <v>7.8</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4" s="1">
         <v>7.5</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="1">
         <v>7</v>
       </c>
-      <c r="Z4" s="47">
+      <c r="Z4">
         <v>6.1</v>
       </c>
       <c r="AA4">
@@ -2739,106 +2738,121 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="K5" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P5" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="R5" s="1">
         <v>8.1</v>
       </c>
-      <c r="S5">
-        <v>7.5</v>
-      </c>
-      <c r="T5">
+      <c r="S5" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="T5" s="1">
         <v>7.9</v>
       </c>
-      <c r="U5">
-        <v>8.6</v>
-      </c>
-      <c r="V5">
+      <c r="U5" s="1">
         <v>8.5</v>
       </c>
-      <c r="W5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="X5" s="48">
-        <v>7.3</v>
-      </c>
-      <c r="Y5" s="48">
-        <v>7.8</v>
-      </c>
-      <c r="Z5" s="47">
+      <c r="V5" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="W5" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="Z5" s="1">
         <v>6.1</v>
       </c>
-      <c r="AA5">
-        <v>5.6</v>
-      </c>
-      <c r="AB5">
-        <v>5.5</v>
-      </c>
-      <c r="AC5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AD5">
-        <v>4.2</v>
-      </c>
-      <c r="AE5">
-        <v>3.6</v>
+      <c r="AA5" s="1">
+        <v>5.62249</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>5.4894259999999999</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4.9229789999999998</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>4.2110019999999997</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>3.6471870000000002</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M9" s="8"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M10" s="5"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M11" s="7"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M12" s="7"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M13" s="7"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M14" s="7"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M15" s="7"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M16" s="7"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M17" s="7"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M18" s="7"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M19" s="7"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M20" s="7"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="7"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M22" s="7"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="6"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="5"/>
+      <c r="M24" s="4"/>
     </row>
   </sheetData>
   <sortState ref="L9:M24">
@@ -2854,10 +2868,10 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,22 +3181,22 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>43.3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>42.1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>41.6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>41.6</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>45.9</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>45.5</v>
       </c>
       <c r="M4">
@@ -3247,22 +3261,22 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>48</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>47.5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>46.4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>48</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>53.5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>52.2</v>
       </c>
       <c r="M5">
@@ -3323,157 +3337,157 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:33" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="41">
         <v>71</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="41">
         <v>74</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="41">
         <v>74.8</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="41">
         <v>74.599999999999994</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="41">
         <v>73.2</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="41">
         <v>70.599999999999994</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="41">
         <v>69.7</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="41">
         <v>69.099999999999994</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="41">
         <v>64.400000000000006</v>
       </c>
-      <c r="K6" s="92">
+      <c r="K6" s="41">
         <v>60.7</v>
       </c>
-      <c r="L6" s="92">
+      <c r="L6" s="41">
         <v>56.9</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="41">
         <v>54.2</v>
       </c>
-      <c r="N6" s="92">
+      <c r="N6" s="41">
         <v>50.8</v>
       </c>
-      <c r="O6" s="92">
+      <c r="O6" s="41">
         <v>48.4</v>
       </c>
-      <c r="P6" s="92">
+      <c r="P6" s="41">
         <v>44.4</v>
       </c>
-      <c r="Q6" s="92">
+      <c r="Q6" s="41">
         <v>42</v>
       </c>
-      <c r="R6" s="92">
+      <c r="R6" s="41">
         <v>40.5</v>
       </c>
-      <c r="S6" s="92">
+      <c r="S6" s="41">
         <v>39.200000000000003</v>
       </c>
-      <c r="T6" s="92">
+      <c r="T6" s="41">
         <v>37.799999999999997</v>
       </c>
-      <c r="U6" s="92">
+      <c r="U6" s="41">
         <v>38.5</v>
       </c>
-      <c r="V6" s="92">
+      <c r="V6" s="41">
         <v>38.1</v>
       </c>
-      <c r="W6" s="92">
+      <c r="W6" s="41">
         <v>37</v>
       </c>
-      <c r="X6" s="92">
+      <c r="X6" s="41">
         <v>34.1</v>
       </c>
-      <c r="Y6" s="92">
+      <c r="Y6" s="41">
         <v>30.3</v>
       </c>
-      <c r="Z6" s="92">
+      <c r="Z6" s="41">
         <v>26.7</v>
       </c>
-      <c r="AA6" s="92">
+      <c r="AA6" s="41">
         <v>24</v>
       </c>
-      <c r="AB6" s="92">
+      <c r="AB6" s="41">
         <v>20.8</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H9" s="3"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H10" s="3"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H11" s="3"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="4"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="4"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="4"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="4"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="3"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="3"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="3"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="3"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="3"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="3"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
     </row>
   </sheetData>
   <sortState ref="H9:I30">
@@ -3487,11 +3501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,73 +3646,73 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>54.662910947128985</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>53.837651486242876</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>58.038396238735793</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>56.694843997715004</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>58.074538115792556</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>57.129758160029546</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>55.628034849458736</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>54.782964364231304</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>53.624925104853205</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>54.309596385274936</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>55.773683680660426</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>56.858626891200181</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>57.592865529214862</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>57.68472420762064</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>54.612246903872617</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>51.283456988657818</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>48.486848538183239</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>43.842702231085624</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>41.700347716745576</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>38.018335176448268</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>34.098701160367746</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>32.439142872564368</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>31.6</v>
       </c>
     </row>
@@ -3706,10 +3720,10 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="50">
-        <v>68.220442198942649</v>
-      </c>
-      <c r="F3" s="51">
+      <c r="E3" s="40">
+        <v>68</v>
+      </c>
+      <c r="F3" s="40">
         <v>64.099999999999994</v>
       </c>
       <c r="G3">
@@ -3763,13 +3777,13 @@
       <c r="W3">
         <v>60.1</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="7">
         <v>57.3</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="7">
         <v>54.6</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="7">
         <v>48.9</v>
       </c>
       <c r="AA3">
@@ -3810,7 +3824,7 @@
       <c r="AC4">
         <v>37.799999999999997</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AD4" s="8">
         <v>36</v>
       </c>
       <c r="AE4">
@@ -3821,114 +3835,153 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="X5">
-        <v>61</v>
-      </c>
-      <c r="Y5">
-        <v>56.2</v>
-      </c>
-      <c r="Z5">
+      <c r="K5" s="1">
+        <v>71</v>
+      </c>
+      <c r="L5" s="1">
+        <v>69.2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N5" s="1">
+        <v>69.3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="P5" s="1">
+        <v>62.8</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>63.4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="T5" s="1">
+        <v>63.9</v>
+      </c>
+      <c r="U5" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="V5" s="1">
+        <v>65.2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>64</v>
+      </c>
+      <c r="X5" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="Z5" s="1">
         <v>52.6</v>
       </c>
-      <c r="AA5">
-        <v>48</v>
-      </c>
-      <c r="AB5">
-        <v>42.9</v>
-      </c>
-      <c r="AC5">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>39.5</v>
-      </c>
-      <c r="AE5">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="AA5" s="1">
+        <v>47.984001999999997</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>42.942281999999999</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>40.316578</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>39.547834999999999</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>37.243020000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="41">
         <v>93.7</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="41">
         <v>98</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="41">
         <v>100.4</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="41">
         <v>102.4</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="41">
         <v>99.5</v>
       </c>
-      <c r="G6" s="92">
+      <c r="G6" s="41">
         <v>95.7</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="41">
         <v>92.8</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="41">
         <v>89.4</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="41">
         <v>85.3</v>
       </c>
-      <c r="K6" s="92">
+      <c r="K6" s="41">
         <v>81.8</v>
       </c>
-      <c r="L6" s="92">
+      <c r="L6" s="41">
         <v>78.3</v>
       </c>
-      <c r="M6" s="92">
+      <c r="M6" s="41">
         <v>76.400000000000006</v>
       </c>
-      <c r="N6" s="92">
+      <c r="N6" s="41">
         <v>73.5</v>
       </c>
-      <c r="O6" s="92">
+      <c r="O6" s="41">
         <v>71.5</v>
       </c>
-      <c r="P6" s="92">
+      <c r="P6" s="41">
         <v>67.5</v>
       </c>
-      <c r="Q6" s="92">
+      <c r="Q6" s="41">
         <v>63.7</v>
       </c>
-      <c r="R6" s="92">
+      <c r="R6" s="41">
         <v>61.3</v>
       </c>
-      <c r="S6" s="92">
+      <c r="S6" s="41">
         <v>59.6</v>
       </c>
-      <c r="T6" s="92">
+      <c r="T6" s="41">
         <v>58.3</v>
       </c>
-      <c r="U6" s="92">
+      <c r="U6" s="41">
         <v>60</v>
       </c>
-      <c r="V6" s="92">
+      <c r="V6" s="41">
         <v>59.9</v>
       </c>
-      <c r="W6" s="92">
+      <c r="W6" s="41">
         <v>58.4</v>
       </c>
-      <c r="X6" s="92">
+      <c r="X6" s="41">
         <v>54.6</v>
       </c>
-      <c r="Y6" s="92">
+      <c r="Y6" s="41">
         <v>49.4</v>
       </c>
-      <c r="Z6" s="92">
+      <c r="Z6" s="41">
         <v>53.3</v>
       </c>
-      <c r="AA6" s="92">
+      <c r="AA6" s="41">
         <v>49.1</v>
       </c>
-      <c r="AB6" s="92">
+      <c r="AB6" s="41">
         <v>44.1</v>
       </c>
     </row>
@@ -4090,70 +4143,70 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>62.999873048114765</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>73.227558370387385</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>76.469622331691298</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>78.324621319661318</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>77.411825726141075</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>77.776383092227078</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>76.459222786624693</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>78.221704278807536</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>76.688895331980291</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>74.801398156974898</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>77.379720847325459</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>76.799802761341226</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>79.308306685055243</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>82.018831475030808</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>77.773290857151409</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>72.171575502571301</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>69.95128496834981</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>65.007375697798864</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>60.173141084997866</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>59.353235357285307</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>54.549459540255206</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>48.542146659251614</v>
       </c>
     </row>
@@ -4161,76 +4214,76 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>86.243467309304066</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>83.430572564764802</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>83.027246723105691</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>85.430269775291364</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>91.315889840691057</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>89.191132270075698</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>92.050863188517667</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>89.390939738301327</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>90.783469084428219</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>89.062253829712006</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>88.022170416503513</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>86.780564892870444</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>88.549826656205639</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>88.108059691504508</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>88.925727592211373</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>90.753695173642598</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>88.514029836755313</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>83.3557687012391</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>78.892858150897922</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>74.13539512802204</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>67.377383655961651</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>63.550309922319265</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="1">
         <v>59.806127433086438</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="1">
         <v>57.81719226067289</v>
       </c>
     </row>
@@ -4244,89 +4297,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:33" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="41">
         <v>160.5</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="41">
         <v>164.7</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="41">
         <v>167.8</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="41">
         <v>173.3</v>
       </c>
-      <c r="F6" s="91">
+      <c r="F6" s="41">
         <v>175</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="41">
         <v>172</v>
       </c>
-      <c r="H6" s="91">
+      <c r="H6" s="41">
         <v>166.6</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="41">
         <v>161.80000000000001</v>
       </c>
-      <c r="J6" s="91">
+      <c r="J6" s="41">
         <v>155.30000000000001</v>
       </c>
-      <c r="K6" s="91">
+      <c r="K6" s="41">
         <v>150.9</v>
       </c>
-      <c r="L6" s="91">
+      <c r="L6" s="41">
         <v>146</v>
       </c>
-      <c r="M6" s="91">
+      <c r="M6" s="41">
         <v>141.69999999999999</v>
       </c>
-      <c r="N6" s="91">
+      <c r="N6" s="41">
         <v>138</v>
       </c>
-      <c r="O6" s="91">
+      <c r="O6" s="41">
         <v>135.9</v>
       </c>
-      <c r="P6" s="91">
+      <c r="P6" s="41">
         <v>130.9</v>
       </c>
-      <c r="Q6" s="91">
+      <c r="Q6" s="41">
         <v>124.4</v>
       </c>
-      <c r="R6" s="91">
+      <c r="R6" s="41">
         <v>119.9</v>
       </c>
-      <c r="S6" s="91">
+      <c r="S6" s="41">
         <v>117.5</v>
       </c>
-      <c r="T6" s="91">
+      <c r="T6" s="41">
         <v>116</v>
       </c>
-      <c r="U6" s="91">
+      <c r="U6" s="41">
         <v>119.9</v>
       </c>
-      <c r="V6" s="91">
+      <c r="V6" s="41">
         <v>119.2</v>
       </c>
-      <c r="W6" s="91">
+      <c r="W6" s="41">
         <v>113.8</v>
       </c>
-      <c r="X6" s="91">
+      <c r="X6" s="41">
         <v>105.9</v>
       </c>
-      <c r="Y6" s="91">
+      <c r="Y6" s="41">
         <v>96.7</v>
       </c>
-      <c r="Z6" s="91">
+      <c r="Z6" s="41">
         <v>89.2</v>
       </c>
-      <c r="AA6" s="91">
+      <c r="AA6" s="41">
         <v>83.2</v>
       </c>
-      <c r="AB6" s="91">
+      <c r="AB6" s="41">
         <v>76.099999999999994</v>
       </c>
     </row>
@@ -4346,1184 +4399,1184 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="59">
+      <c r="B1" s="76">
         <v>2015</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="58">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="75">
         <v>2014</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="59">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="76">
         <v>2013</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="58">
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="75">
         <v>2012</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="70">
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="72">
         <v>2011</v>
       </c>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="72"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="70">
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="72">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="58">
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="75">
         <v>2009</v>
       </c>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="60"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="77"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="52" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="53" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="64"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="52" t="s">
+      <c r="S2" s="60"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="52" t="s">
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="52" t="s">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="52" t="s">
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="52" t="s">
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="52" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="52" t="s">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="52" t="s">
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="52" t="s">
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="53"/>
-      <c r="BC2" s="53"/>
-      <c r="BD2" s="53"/>
-      <c r="BE2" s="54"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="70"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="57"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="71"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="64" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="89" t="s">
+      <c r="N4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="73" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="83" t="s">
+      <c r="T4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="64"/>
-      <c r="X4" s="89" t="s">
+      <c r="W4" s="60"/>
+      <c r="X4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="86" t="s">
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="89" t="s">
+      <c r="AA4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="83" t="s">
+      <c r="AB4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="73" t="s">
+      <c r="AC4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="89" t="s">
+      <c r="AD4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="89" t="s">
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="73" t="s">
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="89" t="s">
+      <c r="AI4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="83" t="s">
+      <c r="AJ4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="73" t="s">
+      <c r="AK4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="89" t="s">
+      <c r="AL4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="89" t="s">
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="73" t="s">
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="89" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="83" t="s">
+      <c r="AR4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="73" t="s">
+      <c r="AS4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="89" t="s">
+      <c r="AT4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="89" t="s">
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="86" t="s">
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="89" t="s">
+      <c r="AY4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="83" t="s">
+      <c r="AZ4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="BA4" s="90" t="s">
+      <c r="BA4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="74" t="s">
+      <c r="BB4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="74" t="s">
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="BE4" s="65"/>
+      <c r="BE4" s="45"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="81"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="81"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="81"/>
-      <c r="AU5" s="77"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="74"/>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="77"/>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="78"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="46"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="74"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="74"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="74"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="81"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="81"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="81"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="77"/>
-      <c r="BD6" s="74"/>
-      <c r="BE6" s="78"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="46"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="68"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="68"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="75"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="88"/>
-      <c r="AY7" s="82"/>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="82"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="68"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="47"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="34"/>
-      <c r="AQ8" s="34"/>
-      <c r="AR8" s="34"/>
-      <c r="AS8" s="34"/>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="33"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="30"/>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29"/>
-      <c r="BE8" s="31"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="24"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="25"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>876934</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="5">
         <v>78.3</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="5">
         <v>21.2</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>3466</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="5">
         <v>3.8</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="5">
         <v>59.5</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18">
+      <c r="I9" s="12"/>
+      <c r="J9" s="13">
         <v>871038</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="6">
         <v>77.8</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="6">
         <v>21.1</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="14">
         <v>4160</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="19">
+      <c r="O9" s="15"/>
+      <c r="P9" s="6">
         <v>62.5</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17">
         <v>872849</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="6">
         <v>77.8</v>
       </c>
-      <c r="T9" s="19">
+      <c r="T9" s="6">
         <v>21.2</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="14">
         <v>4648</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="6">
         <v>61.6</v>
       </c>
-      <c r="Y9" s="24" t="s">
+      <c r="Y9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9" s="17">
         <v>884748</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA9" s="6">
         <v>78.5</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="6">
         <v>20.8</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AC9" s="14">
         <v>5432</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="6">
         <v>5.6</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF9" s="6">
         <v>59.8</v>
       </c>
-      <c r="AG9" s="24" t="s">
+      <c r="AG9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AH9" s="23">
+      <c r="AH9" s="17">
         <v>909109</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AI9" s="6">
         <v>80.400000000000006</v>
       </c>
-      <c r="AJ9" s="19">
+      <c r="AJ9" s="6">
         <v>20.8</v>
       </c>
-      <c r="AK9" s="20">
+      <c r="AK9" s="14">
         <v>5991</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AL9" s="6">
         <v>6.1</v>
       </c>
-      <c r="AM9" s="20" t="s">
+      <c r="AM9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AN9" s="19">
+      <c r="AN9" s="6">
         <v>60.2</v>
       </c>
-      <c r="AO9" s="24" t="s">
+      <c r="AO9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AP9" s="23">
+      <c r="AP9" s="17">
         <v>909245</v>
       </c>
-      <c r="AQ9" s="19">
+      <c r="AQ9" s="6">
         <v>80.5</v>
       </c>
-      <c r="AR9" s="19">
+      <c r="AR9" s="6">
         <v>20.8</v>
       </c>
-      <c r="AS9" s="20">
+      <c r="AS9" s="14">
         <v>6674</v>
       </c>
-      <c r="AT9" s="19">
+      <c r="AT9" s="6">
         <v>6.8</v>
       </c>
-      <c r="AU9" s="20" t="s">
+      <c r="AU9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AV9" s="19">
+      <c r="AV9" s="6">
         <v>62.5</v>
       </c>
-      <c r="AW9" s="24" t="s">
+      <c r="AW9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AX9" s="25">
+      <c r="AX9" s="19">
         <v>896466</v>
       </c>
-      <c r="AY9" s="19">
+      <c r="AY9" s="6">
         <v>79.3</v>
       </c>
-      <c r="AZ9" s="19">
+      <c r="AZ9" s="6">
         <v>21</v>
       </c>
-      <c r="BA9" s="20">
+      <c r="BA9" s="14">
         <v>7158</v>
       </c>
-      <c r="BB9" s="19">
+      <c r="BB9" s="6">
         <v>7.2</v>
       </c>
-      <c r="BC9" s="20" t="s">
+      <c r="BC9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="BD9" s="19">
+      <c r="BD9" s="6">
         <v>59.8</v>
       </c>
-      <c r="BE9" s="24" t="s">
+      <c r="BE9" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="20" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="24" t="s">
+      <c r="X10" s="6"/>
+      <c r="Y10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="20" t="s">
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="24" t="s">
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="20" t="s">
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="24" t="s">
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="20" t="s">
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="24" t="s">
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="20" t="s">
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="BD10" s="19"/>
-      <c r="BE10" s="24" t="s">
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>836160</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="5">
         <v>78.599999999999994</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="5">
         <v>21.3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>3261</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="5">
         <v>3.7</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="5">
         <v>59.7</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18">
+      <c r="I11" s="12"/>
+      <c r="J11" s="13">
         <v>829690</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="6">
         <v>78</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="6">
         <v>21.1</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="14">
         <v>3912</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="19">
+      <c r="O11" s="15"/>
+      <c r="P11" s="6">
         <v>63</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17">
         <v>831282</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="6">
         <v>78</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="6">
         <v>21.2</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U11" s="14">
         <v>4363</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="6">
         <v>4.8</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="W11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="6">
         <v>61.8</v>
       </c>
-      <c r="Y11" s="24" t="s">
+      <c r="Y11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="17">
         <v>842202</v>
       </c>
-      <c r="AA11" s="19">
+      <c r="AA11" s="6">
         <v>78.8</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AB11" s="6">
         <v>20.9</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AC11" s="14">
         <v>5131</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="AD11" s="6">
         <v>5.6</v>
       </c>
-      <c r="AE11" s="20" t="s">
+      <c r="AE11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF11" s="19">
+      <c r="AF11" s="6">
         <v>60.1</v>
       </c>
-      <c r="AG11" s="24" t="s">
+      <c r="AG11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AH11" s="23">
+      <c r="AH11" s="17">
         <v>865585</v>
       </c>
-      <c r="AI11" s="19">
+      <c r="AI11" s="6">
         <v>80.7</v>
       </c>
-      <c r="AJ11" s="19">
+      <c r="AJ11" s="6">
         <v>20.9</v>
       </c>
-      <c r="AK11" s="20">
+      <c r="AK11" s="14">
         <v>5661</v>
       </c>
-      <c r="AL11" s="19">
+      <c r="AL11" s="6">
         <v>6.1</v>
       </c>
-      <c r="AM11" s="20" t="s">
+      <c r="AM11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AN11" s="19">
+      <c r="AN11" s="6">
         <v>60.5</v>
       </c>
-      <c r="AO11" s="24" t="s">
+      <c r="AO11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AP11" s="23">
+      <c r="AP11" s="17">
         <v>865151</v>
       </c>
-      <c r="AQ11" s="19">
+      <c r="AQ11" s="6">
         <v>80.7</v>
       </c>
-      <c r="AR11" s="19">
+      <c r="AR11" s="6">
         <v>20.9</v>
       </c>
-      <c r="AS11" s="20">
+      <c r="AS11" s="14">
         <v>6256</v>
       </c>
-      <c r="AT11" s="19">
+      <c r="AT11" s="6">
         <v>6.7</v>
       </c>
-      <c r="AU11" s="20" t="s">
+      <c r="AU11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AV11" s="19">
+      <c r="AV11" s="6">
         <v>62.8</v>
       </c>
-      <c r="AW11" s="24" t="s">
+      <c r="AW11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AX11" s="25">
+      <c r="AX11" s="19">
         <v>852609</v>
       </c>
-      <c r="AY11" s="19">
+      <c r="AY11" s="6">
         <v>79.5</v>
       </c>
-      <c r="AZ11" s="19">
+      <c r="AZ11" s="6">
         <v>21</v>
       </c>
-      <c r="BA11" s="20">
+      <c r="BA11" s="14">
         <v>6766</v>
       </c>
-      <c r="BB11" s="19">
+      <c r="BB11" s="6">
         <v>7.3</v>
       </c>
-      <c r="BC11" s="20" t="s">
+      <c r="BC11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="BD11" s="19">
+      <c r="BD11" s="6">
         <v>60.2</v>
       </c>
-      <c r="BE11" s="24" t="s">
+      <c r="BE11" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>40774</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="5">
         <v>72.400000000000006</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="5">
         <v>20.2</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>205</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="5">
         <v>4.2</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="5">
         <v>56.1</v>
       </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40">
+      <c r="I12" s="33"/>
+      <c r="J12" s="34">
         <v>41348</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="35">
         <v>72.900000000000006</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="35">
         <v>19.899999999999999</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="36">
         <v>248</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="35">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="41">
+      <c r="O12" s="37"/>
+      <c r="P12" s="35">
         <v>55.2</v>
       </c>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="23">
+      <c r="Q12" s="38"/>
+      <c r="R12" s="17">
         <v>41567</v>
       </c>
-      <c r="S12" s="19">
+      <c r="S12" s="6">
         <v>72.599999999999994</v>
       </c>
-      <c r="T12" s="19">
+      <c r="T12" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="14">
         <v>285</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="6">
         <v>5.5</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="W12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X12" s="6">
         <v>58.6</v>
       </c>
-      <c r="Y12" s="24" t="s">
+      <c r="Y12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Z12" s="23">
+      <c r="Z12" s="17">
         <v>42546</v>
       </c>
-      <c r="AA12" s="19">
+      <c r="AA12" s="6">
         <v>73.8</v>
       </c>
-      <c r="AB12" s="19">
+      <c r="AB12" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AC12" s="14">
         <v>301</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="6">
         <v>5.6</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AE12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AF12" s="19">
+      <c r="AF12" s="6">
         <v>55.5</v>
       </c>
-      <c r="AG12" s="24" t="s">
+      <c r="AG12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AH12" s="23">
+      <c r="AH12" s="17">
         <v>43524</v>
       </c>
-      <c r="AI12" s="19">
+      <c r="AI12" s="6">
         <v>75.099999999999994</v>
       </c>
-      <c r="AJ12" s="19">
+      <c r="AJ12" s="6">
         <v>19.600000000000001</v>
       </c>
-      <c r="AK12" s="20">
+      <c r="AK12" s="14">
         <v>330</v>
       </c>
-      <c r="AL12" s="19">
+      <c r="AL12" s="6">
         <v>6.1</v>
       </c>
-      <c r="AM12" s="20" t="s">
+      <c r="AM12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AN12" s="19">
+      <c r="AN12" s="6">
         <v>55.2</v>
       </c>
-      <c r="AO12" s="24" t="s">
+      <c r="AO12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AP12" s="23">
+      <c r="AP12" s="17">
         <v>44094</v>
       </c>
-      <c r="AQ12" s="19">
+      <c r="AQ12" s="6">
         <v>75.7</v>
       </c>
-      <c r="AR12" s="19">
+      <c r="AR12" s="6">
         <v>19.5</v>
       </c>
-      <c r="AS12" s="20">
+      <c r="AS12" s="14">
         <v>418</v>
       </c>
-      <c r="AT12" s="19">
+      <c r="AT12" s="6">
         <v>7.7</v>
       </c>
-      <c r="AU12" s="20" t="s">
+      <c r="AU12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AV12" s="19">
+      <c r="AV12" s="6">
         <v>59.1</v>
       </c>
-      <c r="AW12" s="24" t="s">
+      <c r="AW12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AX12" s="25">
+      <c r="AX12" s="19">
         <v>43857</v>
       </c>
-      <c r="AY12" s="19">
+      <c r="AY12" s="6">
         <v>74.7</v>
       </c>
-      <c r="AZ12" s="19">
+      <c r="AZ12" s="6">
         <v>19.899999999999999</v>
       </c>
-      <c r="BA12" s="20">
+      <c r="BA12" s="14">
         <v>392</v>
       </c>
-      <c r="BB12" s="19">
+      <c r="BB12" s="6">
         <v>7.1</v>
       </c>
-      <c r="BC12" s="20" t="s">
+      <c r="BC12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="BD12" s="19">
+      <c r="BD12" s="6">
         <v>53.6</v>
       </c>
-      <c r="BE12" s="24" t="s">
+      <c r="BE12" s="18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5767,26 +5820,48 @@
     <sortCondition descending="1" ref="K23"/>
   </sortState>
   <mergeCells count="78">
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BE4:BE7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="BB4:BB7"/>
-    <mergeCell ref="BC4:BC7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="BA2:BE3"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:Q3"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="U2:Y3"/>
+    <mergeCell ref="Z2:AB3"/>
+    <mergeCell ref="AC2:AG3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
     <mergeCell ref="U4:U7"/>
     <mergeCell ref="V4:V7"/>
     <mergeCell ref="W4:W7"/>
@@ -5803,48 +5878,26 @@
     <mergeCell ref="AH4:AH7"/>
     <mergeCell ref="AI4:AI7"/>
     <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="BA2:BE3"/>
-    <mergeCell ref="AX1:BE1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="U2:Y3"/>
-    <mergeCell ref="Z2:AB3"/>
-    <mergeCell ref="AC2:AG3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BE4:BE7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5852,90 +5905,520 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="47">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1996</v>
+      </c>
+      <c r="B2">
+        <v>644</v>
+      </c>
+      <c r="C2">
+        <v>11.7</v>
+      </c>
+      <c r="D2">
+        <v>2932</v>
+      </c>
+      <c r="E2">
+        <v>53.5</v>
+      </c>
+      <c r="F2">
+        <v>6103</v>
+      </c>
+      <c r="G2">
+        <v>71</v>
+      </c>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1997</v>
+      </c>
+      <c r="B3">
+        <v>564</v>
+      </c>
+      <c r="C3">
+        <v>10.4</v>
+      </c>
+      <c r="D3">
+        <v>2895</v>
+      </c>
+      <c r="E3">
+        <v>52.2</v>
+      </c>
+      <c r="F3">
+        <v>6086</v>
+      </c>
+      <c r="G3">
+        <v>69.2</v>
+      </c>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1998</v>
+      </c>
+      <c r="B4">
+        <v>597</v>
+      </c>
+      <c r="C4">
+        <v>10.8</v>
+      </c>
+      <c r="D4">
+        <v>3030</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>6502</v>
+      </c>
+      <c r="G4">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1999</v>
+      </c>
+      <c r="B5">
+        <v>537</v>
+      </c>
+      <c r="C5">
+        <v>9.6</v>
+      </c>
+      <c r="D5">
+        <v>2781</v>
+      </c>
+      <c r="E5">
+        <v>51.1</v>
+      </c>
+      <c r="F5">
+        <v>6340</v>
+      </c>
+      <c r="G5">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>495</v>
+      </c>
+      <c r="C6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D6">
+        <v>2649</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>6184</v>
+      </c>
+      <c r="G6">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2001</v>
       </c>
-      <c r="C1" s="47">
+      <c r="B7">
+        <v>496</v>
+      </c>
+      <c r="C7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D7">
+        <v>2529</v>
+      </c>
+      <c r="E7">
+        <v>45.5</v>
+      </c>
+      <c r="F7">
+        <v>5770</v>
+      </c>
+      <c r="G7">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2002</v>
       </c>
-      <c r="D1" s="47">
+      <c r="B8">
+        <v>480</v>
+      </c>
+      <c r="C8">
+        <v>8.4</v>
+      </c>
+      <c r="D8">
+        <v>2601</v>
+      </c>
+      <c r="E8">
+        <v>46.2</v>
+      </c>
+      <c r="F8">
+        <v>5898</v>
+      </c>
+      <c r="G8">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2003</v>
       </c>
-      <c r="E1" s="47">
+      <c r="B9">
+        <v>466</v>
+      </c>
+      <c r="C9">
+        <v>8.1</v>
+      </c>
+      <c r="D9">
+        <v>2609</v>
+      </c>
+      <c r="E9">
+        <v>46.1</v>
+      </c>
+      <c r="F9">
+        <v>5985</v>
+      </c>
+      <c r="G9">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2004</v>
       </c>
-      <c r="F1" s="47">
+      <c r="B10">
+        <v>434</v>
+      </c>
+      <c r="C10">
+        <v>7.6</v>
+      </c>
+      <c r="D10">
+        <v>2605</v>
+      </c>
+      <c r="E10">
+        <v>45.5</v>
+      </c>
+      <c r="F10">
+        <v>6207</v>
+      </c>
+      <c r="G10">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2005</v>
       </c>
-      <c r="G1" s="47">
+      <c r="B11">
+        <v>457</v>
+      </c>
+      <c r="C11">
+        <v>7.9</v>
+      </c>
+      <c r="D11">
+        <v>2521</v>
+      </c>
+      <c r="E11">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>6111</v>
+      </c>
+      <c r="G11">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2006</v>
       </c>
-      <c r="H1" s="47">
+      <c r="B12">
+        <v>496</v>
+      </c>
+      <c r="C12">
+        <v>8.5</v>
+      </c>
+      <c r="D12">
+        <v>2598</v>
+      </c>
+      <c r="E12">
+        <v>45.1</v>
+      </c>
+      <c r="F12">
+        <v>6320</v>
+      </c>
+      <c r="G12">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2007</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="93">
-        <v>38461</v>
-      </c>
-      <c r="C2" s="93">
-        <v>39350</v>
-      </c>
-      <c r="D2" s="93">
-        <v>39553</v>
-      </c>
-      <c r="E2" s="93">
-        <v>39593</v>
-      </c>
-      <c r="F2" s="94">
-        <v>39804</v>
-      </c>
-      <c r="G2" s="94">
-        <v>39170</v>
-      </c>
-      <c r="H2" s="93">
-        <v>40366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="93">
-        <v>2529</v>
-      </c>
-      <c r="C3" s="93">
-        <v>2601</v>
-      </c>
-      <c r="D3" s="93">
-        <v>2609</v>
-      </c>
-      <c r="E3" s="93">
-        <v>2605</v>
-      </c>
-      <c r="F3" s="94">
-        <v>2521</v>
-      </c>
-      <c r="G3" s="94">
-        <v>2598</v>
-      </c>
-      <c r="H3" s="93">
+      <c r="B13">
+        <v>482</v>
+      </c>
+      <c r="C13">
+        <v>8.4</v>
+      </c>
+      <c r="D13">
         <v>2622</v>
+      </c>
+      <c r="E13">
+        <v>44.7</v>
+      </c>
+      <c r="F13">
+        <v>6421</v>
+      </c>
+      <c r="G13">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14">
+        <v>455</v>
+      </c>
+      <c r="C14">
+        <v>8.1</v>
+      </c>
+      <c r="D14">
+        <v>2578</v>
+      </c>
+      <c r="E14">
+        <v>43.7</v>
+      </c>
+      <c r="F14">
+        <v>6344</v>
+      </c>
+      <c r="G14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2009</v>
+      </c>
+      <c r="B15">
+        <v>392</v>
+      </c>
+      <c r="C15">
+        <v>7.1</v>
+      </c>
+      <c r="D15">
+        <v>2293</v>
+      </c>
+      <c r="E15">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F15">
+        <v>5965</v>
+      </c>
+      <c r="G15">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2010</v>
+      </c>
+      <c r="B16">
+        <v>418</v>
+      </c>
+      <c r="C16">
+        <v>7.7</v>
+      </c>
+      <c r="D16">
+        <v>2081</v>
+      </c>
+      <c r="E16">
+        <v>36.9</v>
+      </c>
+      <c r="F16">
+        <v>5418</v>
+      </c>
+      <c r="G16">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2011</v>
+      </c>
+      <c r="B17">
+        <v>330</v>
+      </c>
+      <c r="C17">
+        <v>6.1</v>
+      </c>
+      <c r="D17">
+        <v>1885</v>
+      </c>
+      <c r="E17">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F17">
+        <v>5083</v>
+      </c>
+      <c r="G17">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2012</v>
+      </c>
+      <c r="B18">
+        <v>301</v>
+      </c>
+      <c r="C18">
+        <v>5.62249</v>
+      </c>
+      <c r="D18">
+        <v>1677</v>
+      </c>
+      <c r="E18">
+        <v>30.823239999999998</v>
+      </c>
+      <c r="F18">
+        <v>4583</v>
+      </c>
+      <c r="G18">
+        <v>47.984001999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2013</v>
+      </c>
+      <c r="B19">
+        <v>285</v>
+      </c>
+      <c r="C19">
+        <v>5.4894259999999999</v>
+      </c>
+      <c r="D19">
+        <v>1476</v>
+      </c>
+      <c r="E19">
+        <v>27.276758999999998</v>
+      </c>
+      <c r="F19">
+        <v>3999</v>
+      </c>
+      <c r="G19">
+        <v>42.942281999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2014</v>
+      </c>
+      <c r="B20">
+        <v>248</v>
+      </c>
+      <c r="C20">
+        <v>4.9229789999999998</v>
+      </c>
+      <c r="D20">
+        <v>1371</v>
+      </c>
+      <c r="E20">
+        <v>25.449213</v>
+      </c>
+      <c r="F20">
+        <v>3683</v>
+      </c>
+      <c r="G20">
+        <v>40.316578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2015</v>
+      </c>
+      <c r="B21">
+        <v>205</v>
+      </c>
+      <c r="C21">
+        <v>4.2110019999999997</v>
+      </c>
+      <c r="D21">
+        <v>1271</v>
+      </c>
+      <c r="E21">
+        <v>24.317447000000001</v>
+      </c>
+      <c r="F21">
+        <v>3565</v>
+      </c>
+      <c r="G21">
+        <v>39.547834999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2016</v>
+      </c>
+      <c r="B22">
+        <v>174</v>
+      </c>
+      <c r="C22">
+        <v>3.6471870000000002</v>
+      </c>
+      <c r="D22">
+        <v>1061</v>
+      </c>
+      <c r="E22">
+        <v>20.928673</v>
+      </c>
+      <c r="F22">
+        <v>3288</v>
+      </c>
+      <c r="G22">
+        <v>37.243020000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Conception rates by age and country.xlsx
+++ b/Conception rates by age and country.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2286432B\OneDrive - University of Glasgow\R Studio - home folder\teen-preg-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2286432b\OneDrive - University of Glasgow\R Studio - home folder\teen-preg-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2E4760DA000B1E54AFDAF35D778596A5BD5FBD80" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Under 16" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
   <definedNames>
     <definedName name="Table1Data">[1]table1Data!$A$1:$IV$65536</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -467,20 +468,107 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -494,102 +582,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2377,7 +2378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2855,7 +2856,7 @@
       <c r="M24" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="L9:M24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L9:M24">
     <sortCondition descending="1" ref="L9:L24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2864,10 +2865,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3490,7 +3491,7 @@
       <c r="H30" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="H9:I30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H9:I30">
     <sortCondition ref="H9:H30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3498,10 +3499,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3986,7 +3987,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="I11:J32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I11:J32">
     <sortCondition descending="1" ref="I11:I32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3995,7 +3996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4389,7 +4390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BE29"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
@@ -4402,544 +4403,544 @@
       <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="76">
+      <c r="B1" s="50">
         <v>2015</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="75">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="49">
         <v>2014</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="76">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="50">
         <v>2013</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="75">
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="49">
         <v>2012</v>
       </c>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="72">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="61">
         <v>2011</v>
       </c>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="74"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
       <c r="AO1" s="21"/>
-      <c r="AP1" s="72">
+      <c r="AP1" s="61">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="74"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="63"/>
       <c r="AW1" s="21"/>
-      <c r="AX1" s="75">
+      <c r="AX1" s="49">
         <v>2009</v>
       </c>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="77"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="51"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="62" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="62" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="62" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="64" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="62" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="62" t="s">
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="62" t="s">
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="62" t="s">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="62" t="s">
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="62" t="s">
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="62" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="62" t="s">
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="62" t="s">
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="70"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="45"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="71"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="48"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="74"/>
+      <c r="J4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="80"/>
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="61" t="s">
+      <c r="Q4" s="56"/>
+      <c r="R4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="60"/>
-      <c r="X4" s="51" t="s">
+      <c r="W4" s="55"/>
+      <c r="X4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="48" t="s">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="51" t="s">
+      <c r="AA4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="54" t="s">
+      <c r="AB4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="61" t="s">
+      <c r="AC4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="51" t="s">
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="61" t="s">
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="54" t="s">
+      <c r="AJ4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="61" t="s">
+      <c r="AK4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="51" t="s">
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="61" t="s">
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AQ4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="54" t="s">
+      <c r="AR4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="61" t="s">
+      <c r="AS4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="51" t="s">
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="51" t="s">
+      <c r="AY4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="54" t="s">
+      <c r="AZ4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="BA4" s="57" t="s">
+      <c r="BA4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="43" t="s">
+      <c r="BB4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="43" t="s">
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BE4" s="45"/>
+      <c r="BE4" s="56"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="46"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="65"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="65"/>
+      <c r="AT5" s="72"/>
+      <c r="AU5" s="68"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="72"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="65"/>
+      <c r="BE5" s="69"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="58"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="43"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="58"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="46"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="75"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="72"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="72"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="72"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="69"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="47"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="66"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="66"/>
+      <c r="BE7" s="59"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
@@ -5816,10 +5817,72 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="K23:M29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K23:M29">
     <sortCondition descending="1" ref="K23"/>
   </sortState>
   <mergeCells count="78">
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BE4:BE7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AP1:AV1"/>
     <mergeCell ref="BA2:BE3"/>
     <mergeCell ref="AX1:BE1"/>
     <mergeCell ref="A2:A7"/>
@@ -5836,75 +5899,13 @@
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BE4:BE7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="BB4:BB7"/>
-    <mergeCell ref="BC4:BC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Conception rates by age and country.xlsx
+++ b/Conception rates by age and country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2286432b\OneDrive - University of Glasgow\R Studio - home folder\teen-preg-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/a_baxter_1_research_gla_ac_uk/Documents/R Studio - home folder/teen-preg-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2E4760DA000B1E54AFDAF35D778596A5BD5FBD80" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2E4760DA000B1E54AFDAF35D778596A5BD5FBD80" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0A46F46-86BE-4D9A-8822-CB85508D14C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Under 16" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -468,24 +471,102 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,86 +585,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2868,7 +2871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3502,11 +3505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:AE2"/>
+      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3714,7 +3717,7 @@
         <v>32.439142872564368</v>
       </c>
       <c r="AE2" s="1">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -4403,544 +4406,544 @@
       <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50">
+      <c r="B1" s="76">
         <v>2015</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="49">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="75">
         <v>2014</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="50">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="76">
         <v>2013</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="49">
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="75">
         <v>2012</v>
       </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="61">
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="72">
         <v>2011</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="63"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="74"/>
       <c r="AO1" s="21"/>
-      <c r="AP1" s="61">
+      <c r="AP1" s="72">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="63"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="74"/>
       <c r="AW1" s="21"/>
-      <c r="AX1" s="49">
+      <c r="AX1" s="75">
         <v>2009</v>
       </c>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="51"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="77"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="43" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="43" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="44" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="43" t="s">
+      <c r="S2" s="60"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="43" t="s">
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="43" t="s">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="43" t="s">
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="43" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="43" t="s">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="43" t="s">
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="43" t="s">
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="45"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="70"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="48"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="71"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="55" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="77" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="64" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="74" t="s">
+      <c r="T4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="55"/>
-      <c r="X4" s="80" t="s">
+      <c r="W4" s="60"/>
+      <c r="X4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="77" t="s">
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="80" t="s">
+      <c r="AA4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="74" t="s">
+      <c r="AB4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="80" t="s">
+      <c r="AD4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="80" t="s">
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="64" t="s">
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="80" t="s">
+      <c r="AI4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="74" t="s">
+      <c r="AJ4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="64" t="s">
+      <c r="AK4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="80" t="s">
+      <c r="AL4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="80" t="s">
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="64" t="s">
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="80" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="74" t="s">
+      <c r="AR4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="64" t="s">
+      <c r="AS4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="80" t="s">
+      <c r="AT4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="80" t="s">
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="77" t="s">
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="80" t="s">
+      <c r="AY4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="74" t="s">
+      <c r="AZ4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="BA4" s="81" t="s">
+      <c r="BA4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="65" t="s">
+      <c r="BB4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="65" t="s">
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="BE4" s="56"/>
+      <c r="BE4" s="45"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="65"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="65"/>
-      <c r="AT5" s="72"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="72"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="72"/>
-      <c r="BC5" s="68"/>
-      <c r="BD5" s="65"/>
-      <c r="BE5" s="69"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="46"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="75"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="72"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="72"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="65"/>
-      <c r="BE6" s="69"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="46"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="58"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="59"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="47"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
@@ -5821,26 +5824,48 @@
     <sortCondition descending="1" ref="K23"/>
   </sortState>
   <mergeCells count="78">
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BE4:BE7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="BB4:BB7"/>
-    <mergeCell ref="BC4:BC7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="BA2:BE3"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:Q3"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="U2:Y3"/>
+    <mergeCell ref="Z2:AB3"/>
+    <mergeCell ref="AC2:AG3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
     <mergeCell ref="U4:U7"/>
     <mergeCell ref="V4:V7"/>
     <mergeCell ref="W4:W7"/>
@@ -5857,48 +5882,26 @@
     <mergeCell ref="AH4:AH7"/>
     <mergeCell ref="AI4:AI7"/>
     <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="BA2:BE3"/>
-    <mergeCell ref="AX1:BE1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="U2:Y3"/>
-    <mergeCell ref="Z2:AB3"/>
-    <mergeCell ref="AC2:AG3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BE4:BE7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Conception rates by age and country.xlsx
+++ b/Conception rates by age and country.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/a_baxter_1_research_gla_ac_uk/Documents/R Studio - home folder/teen-preg-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2E4760DA000B1E54AFDAF35D778596A5BD5FBD80" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B0A46F46-86BE-4D9A-8822-CB85508D14C0}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_2E4760DA000B1E54AFDAF35D778596A5BD5FBD80" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1C0E1A50-6700-4E91-B889-DCD409D546B4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="28">
   <si>
     <t>Country</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Under 16 number</t>
+  </si>
+  <si>
+    <t>Wales[copy]</t>
   </si>
 </sst>
 </file>
@@ -471,20 +474,107 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -498,95 +588,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2382,13 +2385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:AE2"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,7 +2743,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1">
         <v>11.7</v>
@@ -2807,17 +2810,72 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M9" s="5"/>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="T6" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="U6" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="W6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>5.62249</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>5.4894259999999999</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>4.9229789999999998</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>4.2110019999999997</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>3.6471870000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M10" s="4"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="M11" s="6"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="M12" s="6"/>
@@ -2853,14 +2911,17 @@
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="5"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="4"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L9:M24">
-    <sortCondition descending="1" ref="L9:L24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L10:M25">
+    <sortCondition descending="1" ref="L10:L25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3503,13 +3564,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomRight" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,7 +3898,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1">
         <v>71</v>
@@ -3903,95 +3964,137 @@
         <v>37.243020000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>60.1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>55.1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>47.984001999999997</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>42.942281999999999</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>40.316578</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>39.547834999999999</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>37.243020000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B7" s="41">
         <v>93.7</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C7" s="41">
         <v>98</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D7" s="41">
         <v>100.4</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E7" s="41">
         <v>102.4</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F7" s="41">
         <v>99.5</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G7" s="41">
         <v>95.7</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H7" s="41">
         <v>92.8</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I7" s="41">
         <v>89.4</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J7" s="41">
         <v>85.3</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K7" s="41">
         <v>81.8</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L7" s="41">
         <v>78.3</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M7" s="41">
         <v>76.400000000000006</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N7" s="41">
         <v>73.5</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O7" s="41">
         <v>71.5</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P7" s="41">
         <v>67.5</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q7" s="41">
         <v>63.7</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R7" s="41">
         <v>61.3</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S7" s="41">
         <v>59.6</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T7" s="41">
         <v>58.3</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U7" s="41">
         <v>60</v>
       </c>
-      <c r="V6" s="41">
+      <c r="V7" s="41">
         <v>59.9</v>
       </c>
-      <c r="W6" s="41">
+      <c r="W7" s="41">
         <v>58.4</v>
       </c>
-      <c r="X6" s="41">
+      <c r="X7" s="41">
         <v>54.6</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Y7" s="41">
         <v>49.4</v>
       </c>
-      <c r="Z6" s="41">
+      <c r="Z7" s="41">
         <v>53.3</v>
       </c>
-      <c r="AA6" s="41">
+      <c r="AA7" s="41">
         <v>49.1</v>
       </c>
-      <c r="AB6" s="41">
+      <c r="AB7" s="41">
         <v>44.1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I11:J32">
-    <sortCondition descending="1" ref="I11:I32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I12:J33">
+    <sortCondition descending="1" ref="I12:I33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4406,544 +4509,544 @@
       <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="76">
+      <c r="B1" s="50">
         <v>2015</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="75">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="49">
         <v>2014</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="76">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="50">
         <v>2013</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="75">
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="49">
         <v>2012</v>
       </c>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="72">
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="61">
         <v>2011</v>
       </c>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="74"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
       <c r="AO1" s="21"/>
-      <c r="AP1" s="72">
+      <c r="AP1" s="61">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="73"/>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="73"/>
-      <c r="AV1" s="74"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="63"/>
       <c r="AW1" s="21"/>
-      <c r="AX1" s="75">
+      <c r="AX1" s="49">
         <v>2009</v>
       </c>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="77"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="51"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="62" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="62" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="62" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="64" t="s">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="62" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="62" t="s">
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="62" t="s">
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="62" t="s">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="62" t="s">
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="62" t="s">
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="62" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="62" t="s">
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="62" t="s">
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="70"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="45"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="71"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="48"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="74"/>
+      <c r="J4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="80"/>
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="61" t="s">
+      <c r="Q4" s="56"/>
+      <c r="R4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="T4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="60"/>
-      <c r="X4" s="51" t="s">
+      <c r="W4" s="55"/>
+      <c r="X4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="48" t="s">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="51" t="s">
+      <c r="AA4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="54" t="s">
+      <c r="AB4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="61" t="s">
+      <c r="AC4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="51" t="s">
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="61" t="s">
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="54" t="s">
+      <c r="AJ4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="61" t="s">
+      <c r="AK4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="51" t="s">
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="61" t="s">
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AQ4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="54" t="s">
+      <c r="AR4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="61" t="s">
+      <c r="AS4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="51" t="s">
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="51" t="s">
+      <c r="AY4" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="54" t="s">
+      <c r="AZ4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="BA4" s="57" t="s">
+      <c r="BA4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="43" t="s">
+      <c r="BB4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="43" t="s">
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BE4" s="45"/>
+      <c r="BE4" s="56"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="52"/>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="46"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="65"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="65"/>
+      <c r="AT5" s="72"/>
+      <c r="AU5" s="68"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="72"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="65"/>
+      <c r="BE5" s="69"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="46"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="58"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="43"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="58"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="46"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="69"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="69"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="75"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="72"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="78"/>
+      <c r="AY6" s="72"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="72"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="69"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="47"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="47"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="59"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="58"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="66"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="66"/>
+      <c r="BE7" s="59"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
@@ -5824,6 +5927,68 @@
     <sortCondition descending="1" ref="K23"/>
   </sortState>
   <mergeCells count="78">
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BE4:BE7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AC7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AP1:AV1"/>
     <mergeCell ref="BA2:BE3"/>
     <mergeCell ref="AX1:BE1"/>
     <mergeCell ref="A2:A7"/>
@@ -5840,68 +6005,6 @@
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AC7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BE4:BE7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="BB4:BB7"/>
-    <mergeCell ref="BC4:BC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Conception rates by age and country.xlsx
+++ b/Conception rates by age and country.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gla-my.sharepoint.com/personal/a_baxter_1_research_gla_ac_uk/Documents/R Studio - home folder/teen-preg-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2E4760DA000B1E54AFDAF35D778596A5BD5FBD80" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1C0E1A50-6700-4E91-B889-DCD409D546B4}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_2E4760DA000B1E54AFDAF35D778596A5BD5FBD80" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{30C5E07E-7AA0-4EFC-8E95-7B7F17A106DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="4545" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Under 16" sheetId="1" r:id="rId1"/>
@@ -474,24 +474,102 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,86 +588,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2932,11 +2932,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:AE2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,7 +3566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4509,544 +4509,544 @@
       <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50">
+      <c r="B1" s="76">
         <v>2015</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="49">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="75">
         <v>2014</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="50">
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="76">
         <v>2013</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="49">
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="75">
         <v>2012</v>
       </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="61">
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="72">
         <v>2011</v>
       </c>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="63"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="74"/>
       <c r="AO1" s="21"/>
-      <c r="AP1" s="61">
+      <c r="AP1" s="72">
         <v>2010</v>
       </c>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="63"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="73"/>
+      <c r="AV1" s="74"/>
       <c r="AW1" s="21"/>
-      <c r="AX1" s="49">
+      <c r="AX1" s="75">
         <v>2009</v>
       </c>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="51"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="77"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="43" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="43" t="s">
+      <c r="K2" s="60"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="44" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="43" t="s">
+      <c r="S2" s="60"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="43" t="s">
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="43" t="s">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="43" t="s">
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="43" t="s">
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="43" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="43" t="s">
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="43" t="s">
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="43" t="s">
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="45"/>
+      <c r="BB2" s="64"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="70"/>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="48"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="71"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="55" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="77" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="64" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="74" t="s">
+      <c r="T4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="55"/>
-      <c r="X4" s="80" t="s">
+      <c r="W4" s="60"/>
+      <c r="X4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="77" t="s">
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="80" t="s">
+      <c r="AA4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="74" t="s">
+      <c r="AB4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="80" t="s">
+      <c r="AD4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="80" t="s">
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="64" t="s">
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="80" t="s">
+      <c r="AI4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="74" t="s">
+      <c r="AJ4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="64" t="s">
+      <c r="AK4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="80" t="s">
+      <c r="AL4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="80" t="s">
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="64" t="s">
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="80" t="s">
+      <c r="AQ4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="74" t="s">
+      <c r="AR4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="64" t="s">
+      <c r="AS4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="80" t="s">
+      <c r="AT4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="80" t="s">
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="77" t="s">
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="80" t="s">
+      <c r="AY4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="AZ4" s="74" t="s">
+      <c r="AZ4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="BA4" s="81" t="s">
+      <c r="BA4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="BB4" s="65" t="s">
+      <c r="BB4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="65" t="s">
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="BE4" s="56"/>
+      <c r="BE4" s="45"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="65"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="65"/>
-      <c r="AT5" s="72"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="78"/>
-      <c r="AY5" s="72"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="72"/>
-      <c r="BC5" s="68"/>
-      <c r="BD5" s="65"/>
-      <c r="BE5" s="69"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="58"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="52"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="46"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="65"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="75"/>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="72"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="72"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="72"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="65"/>
-      <c r="BE6" s="69"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="46"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="59"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="58"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="59"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="66"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="58"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="59"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="59"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="59"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="47"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
@@ -5927,26 +5927,48 @@
     <sortCondition descending="1" ref="K23"/>
   </sortState>
   <mergeCells count="78">
-    <mergeCell ref="BD4:BD7"/>
-    <mergeCell ref="BE4:BE7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="BB4:BB7"/>
-    <mergeCell ref="BC4:BC7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="BA2:BE3"/>
+    <mergeCell ref="AX1:BE1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:I3"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="M2:Q3"/>
+    <mergeCell ref="R2:T3"/>
+    <mergeCell ref="U2:Y3"/>
+    <mergeCell ref="Z2:AB3"/>
+    <mergeCell ref="AC2:AG3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
     <mergeCell ref="U4:U7"/>
     <mergeCell ref="V4:V7"/>
     <mergeCell ref="W4:W7"/>
@@ -5963,48 +5985,26 @@
     <mergeCell ref="AH4:AH7"/>
     <mergeCell ref="AI4:AI7"/>
     <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="P4:P7"/>
-    <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="BA2:BE3"/>
-    <mergeCell ref="AX1:BE1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:I3"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="M2:Q3"/>
-    <mergeCell ref="R2:T3"/>
-    <mergeCell ref="U2:Y3"/>
-    <mergeCell ref="Z2:AB3"/>
-    <mergeCell ref="AC2:AG3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="BE4:BE7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
